--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Documents\SCHOOL\Towson\2018-2022 -- DSc - Computer Security\6_Fall 2018\COSC 757 - Data Mining\Assignments\Final Project - 12-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B630C68C-FC1B-41A7-B74C-1A79CC38F96C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F6EC37-A747-41FC-810D-B9AD3CF9AF8A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="apparel" sheetId="3" r:id="rId1"/>
     <sheet name="automotive" sheetId="8" r:id="rId2"/>
     <sheet name="baby" sheetId="9" r:id="rId3"/>
-    <sheet name="beauty" sheetId="10" r:id="rId4"/>
-    <sheet name="FORM" sheetId="11" r:id="rId5"/>
-    <sheet name="AVERAGE" sheetId="12" r:id="rId6"/>
+    <sheet name="baby sentiment" sheetId="14" r:id="rId4"/>
+    <sheet name="beauty" sheetId="10" r:id="rId5"/>
+    <sheet name="FORM" sheetId="11" r:id="rId6"/>
+    <sheet name="AVERAGE" sheetId="12" r:id="rId7"/>
+    <sheet name="Sentiment" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="55">
   <si>
     <t>KNN-3</t>
   </si>
@@ -171,6 +173,33 @@
   </si>
   <si>
     <t>Average of 4,870,181 samples</t>
+  </si>
+  <si>
+    <t>Baby</t>
+  </si>
+  <si>
+    <t>Baby+Sentiment</t>
+  </si>
+  <si>
+    <t>SENTIMENT</t>
+  </si>
+  <si>
+    <t>DT-entropy - 500</t>
+  </si>
+  <si>
+    <t>DT-entropy - 1000</t>
+  </si>
+  <si>
+    <t>DT-entropy - 2000</t>
+  </si>
+  <si>
+    <t>DT-entropy - 5000</t>
+  </si>
+  <si>
+    <t>DT-entropy - 10000</t>
+  </si>
+  <si>
+    <t>SENTIMENT  - Helpful - 1000</t>
   </si>
 </sst>
 </file>
@@ -802,7 +831,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -863,19 +892,10 @@
     <xf numFmtId="164" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -887,6 +907,21 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -932,7 +967,679 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="320">
+  <dxfs count="408">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1358,6 +2065,146 @@
         <b/>
         <i val="0"/>
         <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
         <color auto="1"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -1428,6 +2275,146 @@
         <b/>
         <i val="0"/>
         <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
         <color auto="1"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -1498,216 +2485,6 @@
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
         <color auto="1"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -1778,63 +2555,553 @@
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF7030A0"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF7030A0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
       <fill>
@@ -5725,7 +6992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -7982,148 +9249,148 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J6:J10">
-    <cfRule type="top10" dxfId="319" priority="48" rank="1"/>
+    <cfRule type="top10" dxfId="407" priority="48" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K10">
-    <cfRule type="top10" dxfId="318" priority="47" rank="1"/>
+    <cfRule type="top10" dxfId="406" priority="47" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L10">
-    <cfRule type="top10" dxfId="317" priority="46" rank="1"/>
+    <cfRule type="top10" dxfId="405" priority="46" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M10">
-    <cfRule type="top10" dxfId="316" priority="45" rank="1"/>
+    <cfRule type="top10" dxfId="404" priority="45" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:N10">
-    <cfRule type="top10" dxfId="315" priority="44" rank="1"/>
+    <cfRule type="top10" dxfId="403" priority="44" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:O10">
-    <cfRule type="top10" dxfId="314" priority="43" rank="1"/>
+    <cfRule type="top10" dxfId="402" priority="43" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6:P10">
-    <cfRule type="top10" dxfId="313" priority="42" rank="1"/>
+    <cfRule type="top10" dxfId="401" priority="42" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:Q10">
-    <cfRule type="top10" dxfId="312" priority="41" rank="1"/>
+    <cfRule type="top10" dxfId="400" priority="41" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:R10">
-    <cfRule type="top10" dxfId="311" priority="40" rank="1"/>
+    <cfRule type="top10" dxfId="399" priority="40" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:S10">
-    <cfRule type="top10" dxfId="310" priority="39" rank="1"/>
+    <cfRule type="top10" dxfId="398" priority="39" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T10">
-    <cfRule type="top10" dxfId="309" priority="38" rank="1"/>
+    <cfRule type="top10" dxfId="397" priority="38" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6:U10">
-    <cfRule type="top10" dxfId="308" priority="37" rank="1"/>
+    <cfRule type="top10" dxfId="396" priority="37" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:J17">
-    <cfRule type="top10" dxfId="307" priority="36" rank="1"/>
+    <cfRule type="top10" dxfId="395" priority="36" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:K17">
-    <cfRule type="top10" dxfId="306" priority="35" rank="1"/>
+    <cfRule type="top10" dxfId="394" priority="35" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13:L17">
-    <cfRule type="top10" dxfId="305" priority="34" rank="1"/>
+    <cfRule type="top10" dxfId="393" priority="34" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13:M17">
-    <cfRule type="top10" dxfId="304" priority="33" rank="1"/>
+    <cfRule type="top10" dxfId="392" priority="33" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13:N17">
-    <cfRule type="top10" dxfId="303" priority="32" rank="1"/>
+    <cfRule type="top10" dxfId="391" priority="32" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13:O17">
-    <cfRule type="top10" dxfId="302" priority="31" rank="1"/>
+    <cfRule type="top10" dxfId="390" priority="31" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13:P17">
-    <cfRule type="top10" dxfId="301" priority="30" rank="1"/>
+    <cfRule type="top10" dxfId="389" priority="30" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13:Q17">
-    <cfRule type="top10" dxfId="300" priority="29" rank="1"/>
+    <cfRule type="top10" dxfId="388" priority="29" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13:R17">
-    <cfRule type="top10" dxfId="299" priority="28" rank="1"/>
+    <cfRule type="top10" dxfId="387" priority="28" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13:S17">
-    <cfRule type="top10" dxfId="298" priority="27" rank="1"/>
+    <cfRule type="top10" dxfId="386" priority="27" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13:T17">
-    <cfRule type="top10" dxfId="297" priority="26" rank="1"/>
+    <cfRule type="top10" dxfId="385" priority="26" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U13:U17">
-    <cfRule type="top10" dxfId="296" priority="25" rank="1"/>
+    <cfRule type="top10" dxfId="384" priority="25" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:J24">
-    <cfRule type="top10" dxfId="295" priority="24" rank="1"/>
+    <cfRule type="top10" dxfId="383" priority="24" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20:K24">
-    <cfRule type="top10" dxfId="294" priority="23" rank="1"/>
+    <cfRule type="top10" dxfId="382" priority="23" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20:L24">
-    <cfRule type="top10" dxfId="293" priority="22" rank="1"/>
+    <cfRule type="top10" dxfId="381" priority="22" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20:M24">
-    <cfRule type="top10" dxfId="292" priority="21" rank="1"/>
+    <cfRule type="top10" dxfId="380" priority="21" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20:N24">
-    <cfRule type="top10" dxfId="291" priority="20" rank="1"/>
+    <cfRule type="top10" dxfId="379" priority="20" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20:O24">
-    <cfRule type="top10" dxfId="290" priority="19" rank="1"/>
+    <cfRule type="top10" dxfId="378" priority="19" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:P24">
-    <cfRule type="top10" dxfId="289" priority="18" rank="1"/>
+    <cfRule type="top10" dxfId="377" priority="18" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20:Q24">
-    <cfRule type="top10" dxfId="288" priority="17" rank="1"/>
+    <cfRule type="top10" dxfId="376" priority="17" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R20:R24">
-    <cfRule type="top10" dxfId="287" priority="16" rank="1"/>
+    <cfRule type="top10" dxfId="375" priority="16" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20:S24">
-    <cfRule type="top10" dxfId="286" priority="15" rank="1"/>
+    <cfRule type="top10" dxfId="374" priority="15" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T20:T24">
-    <cfRule type="top10" dxfId="285" priority="14" rank="1"/>
+    <cfRule type="top10" dxfId="373" priority="14" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U20:U24">
-    <cfRule type="top10" dxfId="284" priority="13" rank="1"/>
+    <cfRule type="top10" dxfId="372" priority="13" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:J31">
-    <cfRule type="top10" dxfId="283" priority="12" rank="1"/>
+    <cfRule type="top10" dxfId="371" priority="12" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:K31">
-    <cfRule type="top10" dxfId="282" priority="11" rank="1"/>
+    <cfRule type="top10" dxfId="370" priority="11" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:L31">
-    <cfRule type="top10" dxfId="281" priority="10" rank="1"/>
+    <cfRule type="top10" dxfId="369" priority="10" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:M31">
-    <cfRule type="top10" dxfId="280" priority="9" rank="1"/>
+    <cfRule type="top10" dxfId="368" priority="9" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27:N31">
-    <cfRule type="top10" dxfId="279" priority="8" rank="1"/>
+    <cfRule type="top10" dxfId="367" priority="8" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O27:O31">
-    <cfRule type="top10" dxfId="278" priority="7" rank="1"/>
+    <cfRule type="top10" dxfId="366" priority="7" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P27:P31">
-    <cfRule type="top10" dxfId="277" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="365" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27:Q31">
-    <cfRule type="top10" dxfId="276" priority="5" rank="1"/>
+    <cfRule type="top10" dxfId="364" priority="5" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R27:R31">
-    <cfRule type="top10" dxfId="275" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="363" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S27:S31">
-    <cfRule type="top10" dxfId="274" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="362" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T27:T31">
-    <cfRule type="top10" dxfId="273" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="361" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U27:U31">
-    <cfRule type="top10" dxfId="272" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="360" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -10377,148 +11644,148 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J6:J10">
-    <cfRule type="top10" dxfId="271" priority="48" rank="1"/>
+    <cfRule type="top10" dxfId="359" priority="48" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K10">
-    <cfRule type="top10" dxfId="270" priority="47" rank="1"/>
+    <cfRule type="top10" dxfId="358" priority="47" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L10">
-    <cfRule type="top10" dxfId="269" priority="46" rank="1"/>
+    <cfRule type="top10" dxfId="357" priority="46" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M10">
-    <cfRule type="top10" dxfId="268" priority="45" rank="1"/>
+    <cfRule type="top10" dxfId="356" priority="45" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:N10">
-    <cfRule type="top10" dxfId="267" priority="44" rank="1"/>
+    <cfRule type="top10" dxfId="355" priority="44" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:O10">
-    <cfRule type="top10" dxfId="266" priority="43" rank="1"/>
+    <cfRule type="top10" dxfId="354" priority="43" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6:P10">
-    <cfRule type="top10" dxfId="265" priority="42" rank="1"/>
+    <cfRule type="top10" dxfId="353" priority="42" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:Q10">
-    <cfRule type="top10" dxfId="264" priority="41" rank="1"/>
+    <cfRule type="top10" dxfId="352" priority="41" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:R10">
-    <cfRule type="top10" dxfId="263" priority="40" rank="1"/>
+    <cfRule type="top10" dxfId="351" priority="40" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:S10">
-    <cfRule type="top10" dxfId="262" priority="39" rank="1"/>
+    <cfRule type="top10" dxfId="350" priority="39" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T10">
-    <cfRule type="top10" dxfId="261" priority="38" rank="1"/>
+    <cfRule type="top10" dxfId="349" priority="38" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6:U10">
-    <cfRule type="top10" dxfId="260" priority="37" rank="1"/>
+    <cfRule type="top10" dxfId="348" priority="37" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:J17">
-    <cfRule type="top10" dxfId="259" priority="36" rank="1"/>
+    <cfRule type="top10" dxfId="347" priority="36" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:K17">
-    <cfRule type="top10" dxfId="258" priority="35" rank="1"/>
+    <cfRule type="top10" dxfId="346" priority="35" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13:L17">
-    <cfRule type="top10" dxfId="257" priority="34" rank="1"/>
+    <cfRule type="top10" dxfId="345" priority="34" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13:M17">
-    <cfRule type="top10" dxfId="256" priority="33" rank="1"/>
+    <cfRule type="top10" dxfId="344" priority="33" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13:N17">
-    <cfRule type="top10" dxfId="255" priority="32" rank="1"/>
+    <cfRule type="top10" dxfId="343" priority="32" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13:O17">
-    <cfRule type="top10" dxfId="254" priority="31" rank="1"/>
+    <cfRule type="top10" dxfId="342" priority="31" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13:P17">
-    <cfRule type="top10" dxfId="253" priority="30" rank="1"/>
+    <cfRule type="top10" dxfId="341" priority="30" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13:Q17">
-    <cfRule type="top10" dxfId="252" priority="29" rank="1"/>
+    <cfRule type="top10" dxfId="340" priority="29" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13:R17">
-    <cfRule type="top10" dxfId="251" priority="28" rank="1"/>
+    <cfRule type="top10" dxfId="339" priority="28" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13:S17">
-    <cfRule type="top10" dxfId="250" priority="27" rank="1"/>
+    <cfRule type="top10" dxfId="338" priority="27" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13:T17">
-    <cfRule type="top10" dxfId="249" priority="26" rank="1"/>
+    <cfRule type="top10" dxfId="337" priority="26" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U13:U17">
-    <cfRule type="top10" dxfId="248" priority="25" rank="1"/>
+    <cfRule type="top10" dxfId="336" priority="25" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:J24">
-    <cfRule type="top10" dxfId="247" priority="24" rank="1"/>
+    <cfRule type="top10" dxfId="335" priority="24" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20:K24">
-    <cfRule type="top10" dxfId="246" priority="23" rank="1"/>
+    <cfRule type="top10" dxfId="334" priority="23" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20:L24">
-    <cfRule type="top10" dxfId="245" priority="22" rank="1"/>
+    <cfRule type="top10" dxfId="333" priority="22" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20:M24">
-    <cfRule type="top10" dxfId="244" priority="21" rank="1"/>
+    <cfRule type="top10" dxfId="332" priority="21" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20:N24">
-    <cfRule type="top10" dxfId="243" priority="20" rank="1"/>
+    <cfRule type="top10" dxfId="331" priority="20" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20:O24">
-    <cfRule type="top10" dxfId="242" priority="19" rank="1"/>
+    <cfRule type="top10" dxfId="330" priority="19" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:P24">
-    <cfRule type="top10" dxfId="241" priority="18" rank="1"/>
+    <cfRule type="top10" dxfId="329" priority="18" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20:Q24">
-    <cfRule type="top10" dxfId="240" priority="17" rank="1"/>
+    <cfRule type="top10" dxfId="328" priority="17" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R20:R24">
-    <cfRule type="top10" dxfId="239" priority="16" rank="1"/>
+    <cfRule type="top10" dxfId="327" priority="16" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20:S24">
-    <cfRule type="top10" dxfId="238" priority="15" rank="1"/>
+    <cfRule type="top10" dxfId="326" priority="15" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T20:T24">
-    <cfRule type="top10" dxfId="237" priority="14" rank="1"/>
+    <cfRule type="top10" dxfId="325" priority="14" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U20:U24">
-    <cfRule type="top10" dxfId="236" priority="13" rank="1"/>
+    <cfRule type="top10" dxfId="324" priority="13" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:J31">
-    <cfRule type="top10" dxfId="235" priority="12" rank="1"/>
+    <cfRule type="top10" dxfId="323" priority="12" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:K31">
-    <cfRule type="top10" dxfId="234" priority="11" rank="1"/>
+    <cfRule type="top10" dxfId="322" priority="11" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:L31">
-    <cfRule type="top10" dxfId="233" priority="10" rank="1"/>
+    <cfRule type="top10" dxfId="321" priority="10" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:M31">
-    <cfRule type="top10" dxfId="232" priority="9" rank="1"/>
+    <cfRule type="top10" dxfId="320" priority="9" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27:N31">
-    <cfRule type="top10" dxfId="231" priority="8" rank="1"/>
+    <cfRule type="top10" dxfId="319" priority="8" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O27:O31">
-    <cfRule type="top10" dxfId="230" priority="7" rank="1"/>
+    <cfRule type="top10" dxfId="318" priority="7" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P27:P31">
-    <cfRule type="top10" dxfId="229" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="317" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27:Q31">
-    <cfRule type="top10" dxfId="228" priority="5" rank="1"/>
+    <cfRule type="top10" dxfId="316" priority="5" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R27:R31">
-    <cfRule type="top10" dxfId="227" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="315" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S27:S31">
-    <cfRule type="top10" dxfId="226" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="314" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T27:T31">
-    <cfRule type="top10" dxfId="225" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="313" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U27:U31">
-    <cfRule type="top10" dxfId="224" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="312" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -10530,7 +11797,7 @@
   <dimension ref="A1:U87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="J27" sqref="J27:N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12772,148 +14039,148 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J6:J10">
-    <cfRule type="top10" dxfId="223" priority="48" rank="1"/>
+    <cfRule type="top10" dxfId="311" priority="48" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K10">
-    <cfRule type="top10" dxfId="222" priority="47" rank="1"/>
+    <cfRule type="top10" dxfId="310" priority="47" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L10">
-    <cfRule type="top10" dxfId="221" priority="46" rank="1"/>
+    <cfRule type="top10" dxfId="309" priority="46" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M10">
-    <cfRule type="top10" dxfId="220" priority="45" rank="1"/>
+    <cfRule type="top10" dxfId="308" priority="45" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:N10">
-    <cfRule type="top10" dxfId="219" priority="44" rank="1"/>
+    <cfRule type="top10" dxfId="307" priority="44" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:O10">
-    <cfRule type="top10" dxfId="218" priority="43" rank="1"/>
+    <cfRule type="top10" dxfId="306" priority="43" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6:P10">
-    <cfRule type="top10" dxfId="217" priority="42" rank="1"/>
+    <cfRule type="top10" dxfId="305" priority="42" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:Q10">
-    <cfRule type="top10" dxfId="216" priority="41" rank="1"/>
+    <cfRule type="top10" dxfId="304" priority="41" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:R10">
-    <cfRule type="top10" dxfId="215" priority="40" rank="1"/>
+    <cfRule type="top10" dxfId="303" priority="40" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:S10">
-    <cfRule type="top10" dxfId="214" priority="39" rank="1"/>
+    <cfRule type="top10" dxfId="302" priority="39" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T10">
-    <cfRule type="top10" dxfId="213" priority="38" rank="1"/>
+    <cfRule type="top10" dxfId="301" priority="38" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6:U10">
-    <cfRule type="top10" dxfId="212" priority="37" rank="1"/>
+    <cfRule type="top10" dxfId="300" priority="37" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:J17">
-    <cfRule type="top10" dxfId="211" priority="36" rank="1"/>
+    <cfRule type="top10" dxfId="299" priority="36" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:K17">
-    <cfRule type="top10" dxfId="210" priority="35" rank="1"/>
+    <cfRule type="top10" dxfId="298" priority="35" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13:L17">
-    <cfRule type="top10" dxfId="209" priority="34" rank="1"/>
+    <cfRule type="top10" dxfId="297" priority="34" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13:M17">
-    <cfRule type="top10" dxfId="208" priority="33" rank="1"/>
+    <cfRule type="top10" dxfId="296" priority="33" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13:N17">
-    <cfRule type="top10" dxfId="207" priority="32" rank="1"/>
+    <cfRule type="top10" dxfId="295" priority="32" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13:O17">
-    <cfRule type="top10" dxfId="206" priority="31" rank="1"/>
+    <cfRule type="top10" dxfId="294" priority="31" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13:P17">
-    <cfRule type="top10" dxfId="205" priority="30" rank="1"/>
+    <cfRule type="top10" dxfId="293" priority="30" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13:Q17">
-    <cfRule type="top10" dxfId="204" priority="29" rank="1"/>
+    <cfRule type="top10" dxfId="292" priority="29" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13:R17">
-    <cfRule type="top10" dxfId="203" priority="28" rank="1"/>
+    <cfRule type="top10" dxfId="291" priority="28" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13:S17">
-    <cfRule type="top10" dxfId="202" priority="27" rank="1"/>
+    <cfRule type="top10" dxfId="290" priority="27" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13:T17">
-    <cfRule type="top10" dxfId="201" priority="26" rank="1"/>
+    <cfRule type="top10" dxfId="289" priority="26" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U13:U17">
-    <cfRule type="top10" dxfId="200" priority="25" rank="1"/>
+    <cfRule type="top10" dxfId="288" priority="25" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:J24">
-    <cfRule type="top10" dxfId="199" priority="24" rank="1"/>
+    <cfRule type="top10" dxfId="287" priority="24" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20:K24">
-    <cfRule type="top10" dxfId="198" priority="23" rank="1"/>
+    <cfRule type="top10" dxfId="286" priority="23" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20:L24">
-    <cfRule type="top10" dxfId="197" priority="22" rank="1"/>
+    <cfRule type="top10" dxfId="285" priority="22" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20:M24">
-    <cfRule type="top10" dxfId="196" priority="21" rank="1"/>
+    <cfRule type="top10" dxfId="284" priority="21" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20:N24">
-    <cfRule type="top10" dxfId="195" priority="20" rank="1"/>
+    <cfRule type="top10" dxfId="283" priority="20" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20:O24">
-    <cfRule type="top10" dxfId="194" priority="19" rank="1"/>
+    <cfRule type="top10" dxfId="282" priority="19" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:P24">
-    <cfRule type="top10" dxfId="193" priority="18" rank="1"/>
+    <cfRule type="top10" dxfId="281" priority="18" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20:Q24">
-    <cfRule type="top10" dxfId="192" priority="17" rank="1"/>
+    <cfRule type="top10" dxfId="280" priority="17" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R20:R24">
-    <cfRule type="top10" dxfId="191" priority="16" rank="1"/>
+    <cfRule type="top10" dxfId="279" priority="16" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20:S24">
-    <cfRule type="top10" dxfId="190" priority="15" rank="1"/>
+    <cfRule type="top10" dxfId="278" priority="15" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T20:T24">
-    <cfRule type="top10" dxfId="189" priority="14" rank="1"/>
+    <cfRule type="top10" dxfId="277" priority="14" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U20:U24">
-    <cfRule type="top10" dxfId="188" priority="13" rank="1"/>
+    <cfRule type="top10" dxfId="276" priority="13" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:J31">
-    <cfRule type="top10" dxfId="187" priority="12" rank="1"/>
+    <cfRule type="top10" dxfId="275" priority="12" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:K31">
-    <cfRule type="top10" dxfId="186" priority="11" rank="1"/>
+    <cfRule type="top10" dxfId="274" priority="11" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:L31">
-    <cfRule type="top10" dxfId="185" priority="10" rank="1"/>
+    <cfRule type="top10" dxfId="273" priority="10" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:M31">
-    <cfRule type="top10" dxfId="184" priority="9" rank="1"/>
+    <cfRule type="top10" dxfId="272" priority="9" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27:N31">
-    <cfRule type="top10" dxfId="183" priority="8" rank="1"/>
+    <cfRule type="top10" dxfId="271" priority="8" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O27:O31">
-    <cfRule type="top10" dxfId="182" priority="7" rank="1"/>
+    <cfRule type="top10" dxfId="270" priority="7" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P27:P31">
-    <cfRule type="top10" dxfId="181" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="269" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27:Q31">
-    <cfRule type="top10" dxfId="180" priority="5" rank="1"/>
+    <cfRule type="top10" dxfId="268" priority="5" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R27:R31">
-    <cfRule type="top10" dxfId="179" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="267" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S27:S31">
-    <cfRule type="top10" dxfId="178" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="266" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T27:T31">
-    <cfRule type="top10" dxfId="177" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="265" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U27:U31">
-    <cfRule type="top10" dxfId="176" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="264" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -12921,6 +14188,2135 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEAB5B4-E988-4F8D-8726-277DDA6F634D}">
+  <dimension ref="A1:U87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="21" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>13</v>
+      </c>
+      <c r="L3">
+        <v>20</v>
+      </c>
+      <c r="M3">
+        <v>27</v>
+      </c>
+      <c r="N3">
+        <v>34</v>
+      </c>
+      <c r="O3">
+        <v>41</v>
+      </c>
+      <c r="P3">
+        <v>48</v>
+      </c>
+      <c r="Q3">
+        <v>55</v>
+      </c>
+      <c r="R3">
+        <v>62</v>
+      </c>
+      <c r="S3">
+        <v>69</v>
+      </c>
+      <c r="T3">
+        <v>76</v>
+      </c>
+      <c r="U3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="18" t="str">
+        <f>A5</f>
+        <v>helpful_votes</v>
+      </c>
+      <c r="K5" s="18" t="str">
+        <f>A12</f>
+        <v>star_rating</v>
+      </c>
+      <c r="L5" s="18" t="str">
+        <f>A19</f>
+        <v>total_votes</v>
+      </c>
+      <c r="M5" s="18" t="str">
+        <f>A26</f>
+        <v>verified_purchase</v>
+      </c>
+      <c r="N5" s="18" t="str">
+        <f>A33</f>
+        <v>vine</v>
+      </c>
+      <c r="O5" s="9" t="str">
+        <f>A40</f>
+        <v>SENTIMENT</v>
+      </c>
+      <c r="P5" s="9" t="str">
+        <f>A47</f>
+        <v>SENTIMENT  - Helpful - 1000</v>
+      </c>
+      <c r="Q5" s="9">
+        <f>A54</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="9">
+        <f>A61</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="9">
+        <f>A68</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="9">
+        <f>A75</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="10">
+        <f>A82</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="str">
+        <f>A6</f>
+        <v>KNN-3</v>
+      </c>
+      <c r="J6" s="19">
+        <f>B6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="19">
+        <f>B13</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="19">
+        <f>B20</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="19">
+        <f>B27</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="19">
+        <f>B34</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="13">
+        <f>B41</f>
+        <v>0.805709722423401</v>
+      </c>
+      <c r="P6" s="13">
+        <f>B48</f>
+        <v>0.58561724771481505</v>
+      </c>
+      <c r="Q6" s="13">
+        <f>B55</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="13">
+        <f>B62</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="13">
+        <f>B69</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="13">
+        <f>B76</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="15">
+        <f>B83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="5" t="str">
+        <f t="shared" ref="I7:J10" si="0">A7</f>
+        <v>DT-gini</v>
+      </c>
+      <c r="J7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="20">
+        <f t="shared" ref="K7:K10" si="1">B14</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="20">
+        <f t="shared" ref="L7:L10" si="2">B21</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="20">
+        <f t="shared" ref="M7:M10" si="3">B28</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="20">
+        <f t="shared" ref="N7:N10" si="4">B35</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="12">
+        <f t="shared" ref="O7:O10" si="5">B42</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="12">
+        <f t="shared" ref="P7:P10" si="6">B49</f>
+        <v>0.99972173727424496</v>
+      </c>
+      <c r="Q7" s="12">
+        <f t="shared" ref="Q7:Q10" si="7">B56</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="12">
+        <f t="shared" ref="R7:R10" si="8">B63</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="12">
+        <f t="shared" ref="S7:S10" si="9">B70</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="12">
+        <f t="shared" ref="T7:T10" si="10">B77</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="14">
+        <f t="shared" ref="U7:U10" si="11">B84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>DT-entropy</v>
+      </c>
+      <c r="J8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="12">
+        <f t="shared" si="6"/>
+        <v>0.99973126681964697</v>
+      </c>
+      <c r="Q8" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>RF-10</v>
+      </c>
+      <c r="J9" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>infeas.</v>
+      </c>
+      <c r="K9" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>infeas.</v>
+      </c>
+      <c r="L9" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>infeas.</v>
+      </c>
+      <c r="M9" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>infeas.</v>
+      </c>
+      <c r="N9" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>infeas.</v>
+      </c>
+      <c r="O9" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>infeas.</v>
+      </c>
+      <c r="Q9" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="I10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>NB-gaussian</v>
+      </c>
+      <c r="J10" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>infeas.</v>
+      </c>
+      <c r="Q10" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="18" t="str">
+        <f>J5</f>
+        <v>helpful_votes</v>
+      </c>
+      <c r="K12" s="18" t="str">
+        <f t="shared" ref="K12:U12" si="12">K5</f>
+        <v>star_rating</v>
+      </c>
+      <c r="L12" s="18" t="str">
+        <f t="shared" si="12"/>
+        <v>total_votes</v>
+      </c>
+      <c r="M12" s="18" t="str">
+        <f t="shared" si="12"/>
+        <v>verified_purchase</v>
+      </c>
+      <c r="N12" s="18" t="str">
+        <f t="shared" si="12"/>
+        <v>vine</v>
+      </c>
+      <c r="O12" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>SENTIMENT</v>
+      </c>
+      <c r="P12" s="9" t="str">
+        <f t="shared" si="12"/>
+        <v>SENTIMENT  - Helpful - 1000</v>
+      </c>
+      <c r="Q12" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4" t="str">
+        <f>A13</f>
+        <v>KNN-3</v>
+      </c>
+      <c r="J13" s="19">
+        <f>C6</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="19">
+        <f>C13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="19">
+        <f>C20</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="19">
+        <f>C27</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="19">
+        <f>C34</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="13">
+        <f>C41</f>
+        <v>0.81</v>
+      </c>
+      <c r="P13" s="13">
+        <f>C48</f>
+        <v>0.53</v>
+      </c>
+      <c r="Q13" s="13">
+        <f>C55</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="13">
+        <f>C62</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="13">
+        <f>C69</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="13">
+        <f>C76</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="15">
+        <f>C83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="5" t="str">
+        <f t="shared" ref="I14:I17" si="13">A14</f>
+        <v>DT-gini</v>
+      </c>
+      <c r="J14" s="20">
+        <f t="shared" ref="J14:J17" si="14">C7</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="20">
+        <f t="shared" ref="K14:K17" si="15">C14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="20">
+        <f t="shared" ref="L14:L17" si="16">C21</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="20">
+        <f t="shared" ref="M14:M17" si="17">C28</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="20">
+        <f t="shared" ref="N14:N17" si="18">C35</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="12">
+        <f t="shared" ref="O14:O17" si="19">C42</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="12">
+        <f t="shared" ref="P14:P17" si="20">C49</f>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="12">
+        <f t="shared" ref="Q14:Q17" si="21">C56</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="12">
+        <f t="shared" ref="R14:R17" si="22">C63</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="12">
+        <f t="shared" ref="S14:S17" si="23">C70</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="12">
+        <f t="shared" ref="T14:T17" si="24">C77</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="14">
+        <f t="shared" ref="U14:U17" si="25">C84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>DT-entropy</v>
+      </c>
+      <c r="J15" s="20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="12">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="12">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="12">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="12">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="12">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>RF-10</v>
+      </c>
+      <c r="J16" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="22">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="22">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="22">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="22">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="12">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="12" t="str">
+        <f t="shared" si="20"/>
+        <v>infeas.</v>
+      </c>
+      <c r="Q16" s="12">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="12">
+        <f>C65</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="12">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="12">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="I17" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>NB-gaussian</v>
+      </c>
+      <c r="J17" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="21">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="21">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="21">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="11">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="11" t="str">
+        <f t="shared" si="20"/>
+        <v>infeas.</v>
+      </c>
+      <c r="Q17" s="11">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="11">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="11">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="11">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="18" t="str">
+        <f>J5</f>
+        <v>helpful_votes</v>
+      </c>
+      <c r="K19" s="18" t="str">
+        <f t="shared" ref="K19:U19" si="26">K5</f>
+        <v>star_rating</v>
+      </c>
+      <c r="L19" s="18" t="str">
+        <f t="shared" si="26"/>
+        <v>total_votes</v>
+      </c>
+      <c r="M19" s="18" t="str">
+        <f t="shared" si="26"/>
+        <v>verified_purchase</v>
+      </c>
+      <c r="N19" s="18" t="str">
+        <f t="shared" si="26"/>
+        <v>vine</v>
+      </c>
+      <c r="O19" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>SENTIMENT</v>
+      </c>
+      <c r="P19" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>SENTIMENT  - Helpful - 1000</v>
+      </c>
+      <c r="Q19" s="9">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="9">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="9">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="9">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="10">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4" t="str">
+        <f>A20</f>
+        <v>KNN-3</v>
+      </c>
+      <c r="J20" s="19">
+        <f>D6</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="19">
+        <f>D13</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="19">
+        <f>D20</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="19">
+        <f>D27</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="19">
+        <f>D34</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="13">
+        <f>D41</f>
+        <v>0.81</v>
+      </c>
+      <c r="P20" s="13">
+        <f>D48</f>
+        <v>0.59</v>
+      </c>
+      <c r="Q20" s="13">
+        <f>D55</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="13">
+        <f>D62</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="13">
+        <f>D69</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="13">
+        <f>D76</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="15">
+        <f>D83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="5" t="str">
+        <f t="shared" ref="I21:I24" si="27">A21</f>
+        <v>DT-gini</v>
+      </c>
+      <c r="J21" s="20">
+        <f t="shared" ref="J21:J24" si="28">D7</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="20">
+        <f t="shared" ref="K21:K24" si="29">D14</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="20">
+        <f t="shared" ref="L21:L24" si="30">D21</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="20">
+        <f t="shared" ref="M21:M24" si="31">D28</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="20">
+        <f t="shared" ref="N21:N24" si="32">D35</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="12">
+        <f t="shared" ref="O21:O24" si="33">D42</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="12">
+        <f t="shared" ref="P21:P24" si="34">D49</f>
+        <v>1</v>
+      </c>
+      <c r="Q21" s="12">
+        <f t="shared" ref="Q21:Q24" si="35">D56</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="12">
+        <f t="shared" ref="R21:R24" si="36">D63</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="12">
+        <f t="shared" ref="S21:S24" si="37">D70</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="12">
+        <f t="shared" ref="T21:T24" si="38">D77</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="14">
+        <f t="shared" ref="U21:U24" si="39">D84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>DT-entropy</v>
+      </c>
+      <c r="J22" s="20">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="20">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="20">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="20">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="20">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="12">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="12">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="Q22" s="12">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="12">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="12">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="14">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v>RF-10</v>
+      </c>
+      <c r="J23" s="22">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="22">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="22">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="22">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="22">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="12">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="12" t="str">
+        <f t="shared" si="34"/>
+        <v>infeas.</v>
+      </c>
+      <c r="Q23" s="12">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="12">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="12">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="12">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="14">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="I24" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v>NB-gaussian</v>
+      </c>
+      <c r="J24" s="21">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="21">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="21">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="21">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="21">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="11">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="11" t="str">
+        <f t="shared" si="34"/>
+        <v>infeas.</v>
+      </c>
+      <c r="Q24" s="11">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="11">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="11">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="11">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="18" t="str">
+        <f>J5</f>
+        <v>helpful_votes</v>
+      </c>
+      <c r="K26" s="18" t="str">
+        <f t="shared" ref="K26:U26" si="40">K5</f>
+        <v>star_rating</v>
+      </c>
+      <c r="L26" s="18" t="str">
+        <f t="shared" si="40"/>
+        <v>total_votes</v>
+      </c>
+      <c r="M26" s="18" t="str">
+        <f t="shared" si="40"/>
+        <v>verified_purchase</v>
+      </c>
+      <c r="N26" s="18" t="str">
+        <f t="shared" si="40"/>
+        <v>vine</v>
+      </c>
+      <c r="O26" s="9" t="str">
+        <f t="shared" si="40"/>
+        <v>SENTIMENT</v>
+      </c>
+      <c r="P26" s="9" t="str">
+        <f t="shared" si="40"/>
+        <v>SENTIMENT  - Helpful - 1000</v>
+      </c>
+      <c r="Q26" s="9">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="9">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="9">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="9">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="10">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4" t="str">
+        <f>A27</f>
+        <v>KNN-3</v>
+      </c>
+      <c r="J27" s="19">
+        <f>E6</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="19">
+        <f>E13</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="19">
+        <f>E20</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="19">
+        <f>E27</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="19">
+        <f>E34</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="13">
+        <f>E41</f>
+        <v>0.81</v>
+      </c>
+      <c r="P27" s="13">
+        <f>E48</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Q27" s="13">
+        <f>E55</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="13">
+        <f>E62</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="13">
+        <f>E69</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="13">
+        <f>E76</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="15">
+        <f>E83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="5" t="str">
+        <f t="shared" ref="I28:I31" si="41">A28</f>
+        <v>DT-gini</v>
+      </c>
+      <c r="J28" s="20">
+        <f t="shared" ref="J28:J31" si="42">E7</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="20">
+        <f t="shared" ref="K28:K31" si="43">E14</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="20">
+        <f t="shared" ref="L28:L31" si="44">E21</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="20">
+        <f t="shared" ref="M28:M31" si="45">E28</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="20">
+        <f t="shared" ref="N28:N31" si="46">E35</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="12">
+        <f t="shared" ref="O28:O31" si="47">E42</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="12">
+        <f t="shared" ref="P28:P31" si="48">E49</f>
+        <v>1</v>
+      </c>
+      <c r="Q28" s="12">
+        <f t="shared" ref="Q28:Q31" si="49">E56</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="12">
+        <f t="shared" ref="R28:R31" si="50">E63</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="12">
+        <f t="shared" ref="S28:S31" si="51">E70</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="12">
+        <f t="shared" ref="T28:T31" si="52">E77</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="14">
+        <f t="shared" ref="U28:U31" si="53">E84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" s="5" t="str">
+        <f t="shared" si="41"/>
+        <v>DT-entropy</v>
+      </c>
+      <c r="J29" s="20">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="20">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="20">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="20">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="20">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="12">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="12">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="Q29" s="12">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="12">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="12">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="12">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="14">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" s="5" t="str">
+        <f t="shared" si="41"/>
+        <v>RF-10</v>
+      </c>
+      <c r="J30" s="22">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="22">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="22">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="22">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="22">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="12">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="12" t="str">
+        <f t="shared" si="48"/>
+        <v>infeas.</v>
+      </c>
+      <c r="Q30" s="12">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="12">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="12">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="12">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="14">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="I31" s="7" t="str">
+        <f t="shared" si="41"/>
+        <v>NB-gaussian</v>
+      </c>
+      <c r="J31" s="21">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="21">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="21">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="21">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="21">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="11">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="11" t="str">
+        <f t="shared" si="48"/>
+        <v>infeas.</v>
+      </c>
+      <c r="Q31" s="11">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="11">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="11">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="11">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="16">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>0.805709722423401</v>
+      </c>
+      <c r="C41">
+        <v>0.81</v>
+      </c>
+      <c r="D41">
+        <v>0.81</v>
+      </c>
+      <c r="E41">
+        <v>0.81</v>
+      </c>
+      <c r="F41">
+        <v>524684</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>0.58561724771481505</v>
+      </c>
+      <c r="C48">
+        <v>0.53</v>
+      </c>
+      <c r="D48">
+        <v>0.59</v>
+      </c>
+      <c r="E48">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F48">
+        <v>524684</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49">
+        <v>0.99972173727424496</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>524684</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>0.99973126681964697</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>524684</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J6:J10">
+    <cfRule type="top10" dxfId="47" priority="48" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:K10">
+    <cfRule type="top10" dxfId="46" priority="47" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6:L10">
+    <cfRule type="top10" dxfId="45" priority="46" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M10">
+    <cfRule type="top10" dxfId="44" priority="45" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6:N10">
+    <cfRule type="top10" dxfId="43" priority="44" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O10">
+    <cfRule type="top10" dxfId="42" priority="43" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P6:P10">
+    <cfRule type="top10" dxfId="41" priority="42" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q6:Q10">
+    <cfRule type="top10" dxfId="40" priority="41" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R6:R10">
+    <cfRule type="top10" dxfId="39" priority="40" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S6:S10">
+    <cfRule type="top10" dxfId="38" priority="39" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T6:T10">
+    <cfRule type="top10" dxfId="37" priority="38" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U6:U10">
+    <cfRule type="top10" dxfId="36" priority="37" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:J17">
+    <cfRule type="top10" dxfId="35" priority="36" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13:K17">
+    <cfRule type="top10" dxfId="34" priority="35" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13:L17">
+    <cfRule type="top10" dxfId="33" priority="34" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13:M17">
+    <cfRule type="top10" dxfId="32" priority="33" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N13:N17">
+    <cfRule type="top10" dxfId="31" priority="32" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O13:O17">
+    <cfRule type="top10" dxfId="30" priority="31" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P13:P17">
+    <cfRule type="top10" dxfId="29" priority="30" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q13:Q17">
+    <cfRule type="top10" dxfId="28" priority="29" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R13:R17">
+    <cfRule type="top10" dxfId="27" priority="28" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S13:S17">
+    <cfRule type="top10" dxfId="26" priority="27" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T13:T17">
+    <cfRule type="top10" dxfId="25" priority="26" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U13:U17">
+    <cfRule type="top10" dxfId="24" priority="25" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:J24">
+    <cfRule type="top10" dxfId="23" priority="24" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20:K24">
+    <cfRule type="top10" dxfId="22" priority="23" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20:L24">
+    <cfRule type="top10" dxfId="21" priority="22" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M20:M24">
+    <cfRule type="top10" dxfId="20" priority="21" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N20:N24">
+    <cfRule type="top10" dxfId="19" priority="20" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O20:O24">
+    <cfRule type="top10" dxfId="18" priority="19" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P20:P24">
+    <cfRule type="top10" dxfId="17" priority="18" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q20:Q24">
+    <cfRule type="top10" dxfId="16" priority="17" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R20:R24">
+    <cfRule type="top10" dxfId="15" priority="16" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S20:S24">
+    <cfRule type="top10" dxfId="14" priority="15" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T20:T24">
+    <cfRule type="top10" dxfId="13" priority="14" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U20:U24">
+    <cfRule type="top10" dxfId="12" priority="13" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:J31">
+    <cfRule type="top10" dxfId="11" priority="12" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27:K31">
+    <cfRule type="top10" dxfId="10" priority="11" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27:L31">
+    <cfRule type="top10" dxfId="9" priority="10" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M27:M31">
+    <cfRule type="top10" dxfId="8" priority="9" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N27:N31">
+    <cfRule type="top10" dxfId="7" priority="8" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O27:O31">
+    <cfRule type="top10" dxfId="6" priority="7" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P27:P31">
+    <cfRule type="top10" dxfId="5" priority="6" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q27:Q31">
+    <cfRule type="top10" dxfId="4" priority="5" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R27:R31">
+    <cfRule type="top10" dxfId="3" priority="4" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S27:S31">
+    <cfRule type="top10" dxfId="2" priority="3" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T27:T31">
+    <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U27:U31">
+    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD0213C-086B-4867-8792-4DD21CCE1C75}">
   <dimension ref="A1:U87"/>
   <sheetViews>
@@ -15029,155 +18425,155 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J6:J10">
-    <cfRule type="top10" dxfId="175" priority="48" rank="1"/>
+    <cfRule type="top10" dxfId="263" priority="48" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K10">
-    <cfRule type="top10" dxfId="174" priority="47" rank="1"/>
+    <cfRule type="top10" dxfId="262" priority="47" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L10">
-    <cfRule type="top10" dxfId="173" priority="46" rank="1"/>
+    <cfRule type="top10" dxfId="261" priority="46" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M10">
-    <cfRule type="top10" dxfId="172" priority="45" rank="1"/>
+    <cfRule type="top10" dxfId="260" priority="45" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:N10">
-    <cfRule type="top10" dxfId="171" priority="44" rank="1"/>
+    <cfRule type="top10" dxfId="259" priority="44" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:O10">
-    <cfRule type="top10" dxfId="170" priority="43" rank="1"/>
+    <cfRule type="top10" dxfId="258" priority="43" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6:P10">
-    <cfRule type="top10" dxfId="169" priority="42" rank="1"/>
+    <cfRule type="top10" dxfId="257" priority="42" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:Q10">
-    <cfRule type="top10" dxfId="168" priority="41" rank="1"/>
+    <cfRule type="top10" dxfId="256" priority="41" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:R10">
-    <cfRule type="top10" dxfId="167" priority="40" rank="1"/>
+    <cfRule type="top10" dxfId="255" priority="40" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:S10">
-    <cfRule type="top10" dxfId="166" priority="39" rank="1"/>
+    <cfRule type="top10" dxfId="254" priority="39" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T10">
-    <cfRule type="top10" dxfId="165" priority="38" rank="1"/>
+    <cfRule type="top10" dxfId="253" priority="38" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6:U10">
-    <cfRule type="top10" dxfId="164" priority="37" rank="1"/>
+    <cfRule type="top10" dxfId="252" priority="37" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:J17">
-    <cfRule type="top10" dxfId="163" priority="36" rank="1"/>
+    <cfRule type="top10" dxfId="251" priority="36" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:K17">
-    <cfRule type="top10" dxfId="162" priority="35" rank="1"/>
+    <cfRule type="top10" dxfId="250" priority="35" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13:L17">
-    <cfRule type="top10" dxfId="161" priority="34" rank="1"/>
+    <cfRule type="top10" dxfId="249" priority="34" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13:M17">
-    <cfRule type="top10" dxfId="160" priority="33" rank="1"/>
+    <cfRule type="top10" dxfId="248" priority="33" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13:N17">
-    <cfRule type="top10" dxfId="159" priority="32" rank="1"/>
+    <cfRule type="top10" dxfId="247" priority="32" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13:O17">
-    <cfRule type="top10" dxfId="158" priority="31" rank="1"/>
+    <cfRule type="top10" dxfId="246" priority="31" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13:P17">
-    <cfRule type="top10" dxfId="157" priority="30" rank="1"/>
+    <cfRule type="top10" dxfId="245" priority="30" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13:Q17">
-    <cfRule type="top10" dxfId="156" priority="29" rank="1"/>
+    <cfRule type="top10" dxfId="244" priority="29" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13:R17">
-    <cfRule type="top10" dxfId="155" priority="28" rank="1"/>
+    <cfRule type="top10" dxfId="243" priority="28" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13:S17">
-    <cfRule type="top10" dxfId="154" priority="27" rank="1"/>
+    <cfRule type="top10" dxfId="242" priority="27" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13:T17">
-    <cfRule type="top10" dxfId="153" priority="26" rank="1"/>
+    <cfRule type="top10" dxfId="241" priority="26" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U13:U17">
-    <cfRule type="top10" dxfId="152" priority="25" rank="1"/>
+    <cfRule type="top10" dxfId="240" priority="25" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:J24">
-    <cfRule type="top10" dxfId="151" priority="24" rank="1"/>
+    <cfRule type="top10" dxfId="239" priority="24" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20:K24">
-    <cfRule type="top10" dxfId="150" priority="23" rank="1"/>
+    <cfRule type="top10" dxfId="238" priority="23" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20:L24">
-    <cfRule type="top10" dxfId="149" priority="22" rank="1"/>
+    <cfRule type="top10" dxfId="237" priority="22" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20:M24">
-    <cfRule type="top10" dxfId="148" priority="21" rank="1"/>
+    <cfRule type="top10" dxfId="236" priority="21" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20:N24">
-    <cfRule type="top10" dxfId="147" priority="20" rank="1"/>
+    <cfRule type="top10" dxfId="235" priority="20" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20:O24">
-    <cfRule type="top10" dxfId="146" priority="19" rank="1"/>
+    <cfRule type="top10" dxfId="234" priority="19" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:P24">
-    <cfRule type="top10" dxfId="145" priority="18" rank="1"/>
+    <cfRule type="top10" dxfId="233" priority="18" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20:Q24">
-    <cfRule type="top10" dxfId="144" priority="17" rank="1"/>
+    <cfRule type="top10" dxfId="232" priority="17" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R20:R24">
-    <cfRule type="top10" dxfId="143" priority="16" rank="1"/>
+    <cfRule type="top10" dxfId="231" priority="16" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20:S24">
-    <cfRule type="top10" dxfId="142" priority="15" rank="1"/>
+    <cfRule type="top10" dxfId="230" priority="15" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T20:T24">
-    <cfRule type="top10" dxfId="141" priority="14" rank="1"/>
+    <cfRule type="top10" dxfId="229" priority="14" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U20:U24">
-    <cfRule type="top10" dxfId="140" priority="13" rank="1"/>
+    <cfRule type="top10" dxfId="228" priority="13" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:J31">
-    <cfRule type="top10" dxfId="139" priority="12" rank="1"/>
+    <cfRule type="top10" dxfId="227" priority="12" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:K31">
-    <cfRule type="top10" dxfId="138" priority="11" rank="1"/>
+    <cfRule type="top10" dxfId="226" priority="11" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:L31">
-    <cfRule type="top10" dxfId="137" priority="10" rank="1"/>
+    <cfRule type="top10" dxfId="225" priority="10" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:M31">
-    <cfRule type="top10" dxfId="136" priority="9" rank="1"/>
+    <cfRule type="top10" dxfId="224" priority="9" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27:N31">
-    <cfRule type="top10" dxfId="135" priority="8" rank="1"/>
+    <cfRule type="top10" dxfId="223" priority="8" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O27:O31">
-    <cfRule type="top10" dxfId="134" priority="7" rank="1"/>
+    <cfRule type="top10" dxfId="222" priority="7" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P27:P31">
-    <cfRule type="top10" dxfId="133" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="221" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27:Q31">
-    <cfRule type="top10" dxfId="132" priority="5" rank="1"/>
+    <cfRule type="top10" dxfId="220" priority="5" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R27:R31">
-    <cfRule type="top10" dxfId="131" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="219" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S27:S31">
-    <cfRule type="top10" dxfId="130" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="218" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T27:T31">
-    <cfRule type="top10" dxfId="129" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="217" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U27:U31">
-    <cfRule type="top10" dxfId="128" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="216" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B983F237-1E5E-4C5E-999C-9BB4C0EF693B}">
   <dimension ref="A1:U87"/>
   <sheetViews>
@@ -17058,155 +20454,155 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J6:J10">
-    <cfRule type="top10" dxfId="127" priority="48" rank="1"/>
+    <cfRule type="top10" dxfId="215" priority="48" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K10">
-    <cfRule type="top10" dxfId="126" priority="47" rank="1"/>
+    <cfRule type="top10" dxfId="214" priority="47" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L10">
-    <cfRule type="top10" dxfId="125" priority="46" rank="1"/>
+    <cfRule type="top10" dxfId="213" priority="46" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M10">
-    <cfRule type="top10" dxfId="124" priority="45" rank="1"/>
+    <cfRule type="top10" dxfId="212" priority="45" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:N10">
-    <cfRule type="top10" dxfId="123" priority="44" rank="1"/>
+    <cfRule type="top10" dxfId="211" priority="44" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:O10">
-    <cfRule type="top10" dxfId="122" priority="43" rank="1"/>
+    <cfRule type="top10" dxfId="210" priority="43" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6:P10">
-    <cfRule type="top10" dxfId="121" priority="42" rank="1"/>
+    <cfRule type="top10" dxfId="209" priority="42" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:Q10">
-    <cfRule type="top10" dxfId="120" priority="41" rank="1"/>
+    <cfRule type="top10" dxfId="208" priority="41" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:R10">
-    <cfRule type="top10" dxfId="119" priority="40" rank="1"/>
+    <cfRule type="top10" dxfId="207" priority="40" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:S10">
-    <cfRule type="top10" dxfId="118" priority="39" rank="1"/>
+    <cfRule type="top10" dxfId="206" priority="39" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T10">
-    <cfRule type="top10" dxfId="117" priority="38" rank="1"/>
+    <cfRule type="top10" dxfId="205" priority="38" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6:U10">
-    <cfRule type="top10" dxfId="116" priority="37" rank="1"/>
+    <cfRule type="top10" dxfId="204" priority="37" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:J17">
-    <cfRule type="top10" dxfId="115" priority="36" rank="1"/>
+    <cfRule type="top10" dxfId="203" priority="36" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:K17">
-    <cfRule type="top10" dxfId="114" priority="35" rank="1"/>
+    <cfRule type="top10" dxfId="202" priority="35" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13:L17">
-    <cfRule type="top10" dxfId="113" priority="34" rank="1"/>
+    <cfRule type="top10" dxfId="201" priority="34" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13:M17">
-    <cfRule type="top10" dxfId="112" priority="33" rank="1"/>
+    <cfRule type="top10" dxfId="200" priority="33" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13:N17">
-    <cfRule type="top10" dxfId="111" priority="32" rank="1"/>
+    <cfRule type="top10" dxfId="199" priority="32" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13:O17">
-    <cfRule type="top10" dxfId="110" priority="31" rank="1"/>
+    <cfRule type="top10" dxfId="198" priority="31" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13:P17">
-    <cfRule type="top10" dxfId="109" priority="30" rank="1"/>
+    <cfRule type="top10" dxfId="197" priority="30" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13:Q17">
-    <cfRule type="top10" dxfId="108" priority="29" rank="1"/>
+    <cfRule type="top10" dxfId="196" priority="29" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13:R17">
-    <cfRule type="top10" dxfId="107" priority="28" rank="1"/>
+    <cfRule type="top10" dxfId="195" priority="28" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13:S17">
-    <cfRule type="top10" dxfId="106" priority="27" rank="1"/>
+    <cfRule type="top10" dxfId="194" priority="27" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T13:T17">
-    <cfRule type="top10" dxfId="105" priority="26" rank="1"/>
+    <cfRule type="top10" dxfId="193" priority="26" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U13:U17">
-    <cfRule type="top10" dxfId="104" priority="25" rank="1"/>
+    <cfRule type="top10" dxfId="192" priority="25" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:J24">
-    <cfRule type="top10" dxfId="103" priority="24" rank="1"/>
+    <cfRule type="top10" dxfId="191" priority="24" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20:K24">
-    <cfRule type="top10" dxfId="102" priority="23" rank="1"/>
+    <cfRule type="top10" dxfId="190" priority="23" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20:L24">
-    <cfRule type="top10" dxfId="101" priority="22" rank="1"/>
+    <cfRule type="top10" dxfId="189" priority="22" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20:M24">
-    <cfRule type="top10" dxfId="100" priority="21" rank="1"/>
+    <cfRule type="top10" dxfId="188" priority="21" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20:N24">
-    <cfRule type="top10" dxfId="99" priority="20" rank="1"/>
+    <cfRule type="top10" dxfId="187" priority="20" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20:O24">
-    <cfRule type="top10" dxfId="98" priority="19" rank="1"/>
+    <cfRule type="top10" dxfId="186" priority="19" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:P24">
-    <cfRule type="top10" dxfId="97" priority="18" rank="1"/>
+    <cfRule type="top10" dxfId="185" priority="18" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20:Q24">
-    <cfRule type="top10" dxfId="96" priority="17" rank="1"/>
+    <cfRule type="top10" dxfId="184" priority="17" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R20:R24">
-    <cfRule type="top10" dxfId="95" priority="16" rank="1"/>
+    <cfRule type="top10" dxfId="183" priority="16" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20:S24">
-    <cfRule type="top10" dxfId="94" priority="15" rank="1"/>
+    <cfRule type="top10" dxfId="182" priority="15" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T20:T24">
-    <cfRule type="top10" dxfId="93" priority="14" rank="1"/>
+    <cfRule type="top10" dxfId="181" priority="14" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U20:U24">
-    <cfRule type="top10" dxfId="92" priority="13" rank="1"/>
+    <cfRule type="top10" dxfId="180" priority="13" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:J31">
-    <cfRule type="top10" dxfId="91" priority="12" rank="1"/>
+    <cfRule type="top10" dxfId="179" priority="12" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:K31">
-    <cfRule type="top10" dxfId="90" priority="11" rank="1"/>
+    <cfRule type="top10" dxfId="178" priority="11" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:L31">
-    <cfRule type="top10" dxfId="89" priority="10" rank="1"/>
+    <cfRule type="top10" dxfId="177" priority="10" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:M31">
-    <cfRule type="top10" dxfId="88" priority="9" rank="1"/>
+    <cfRule type="top10" dxfId="176" priority="9" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27:N31">
-    <cfRule type="top10" dxfId="87" priority="8" rank="1"/>
+    <cfRule type="top10" dxfId="175" priority="8" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O27:O31">
-    <cfRule type="top10" dxfId="86" priority="7" rank="1"/>
+    <cfRule type="top10" dxfId="174" priority="7" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P27:P31">
-    <cfRule type="top10" dxfId="85" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="173" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27:Q31">
-    <cfRule type="top10" dxfId="84" priority="5" rank="1"/>
+    <cfRule type="top10" dxfId="172" priority="5" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R27:R31">
-    <cfRule type="top10" dxfId="83" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="171" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S27:S31">
-    <cfRule type="top10" dxfId="82" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="170" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T27:T31">
-    <cfRule type="top10" dxfId="81" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="169" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U27:U31">
-    <cfRule type="top10" dxfId="80" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="168" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6ECBA4-5DD1-4A4E-A033-44FBECE0FA29}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -17230,27 +20626,27 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="34" t="s">
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
-      <c r="C5" s="33"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="28" t="s">
         <v>33</v>
       </c>
@@ -17284,7 +20680,7 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="36" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="29">
@@ -17320,7 +20716,7 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="37" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="30">
@@ -17356,7 +20752,7 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="37" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="30">
@@ -17392,43 +20788,43 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="L9" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="38" t="s">
+      <c r="M9" s="35" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="38" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="31">
@@ -17478,27 +20874,27 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="34" t="s">
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
-      <c r="C13" s="33"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="28" t="s">
         <v>33</v>
       </c>
@@ -17532,7 +20928,7 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="36" t="s">
         <v>0</v>
       </c>
       <c r="D14" s="29">
@@ -17568,7 +20964,7 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="37" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="30">
@@ -17604,7 +21000,7 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="37" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="30">
@@ -17640,43 +21036,43 @@
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="38" t="s">
+      <c r="G17" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="38" t="s">
+      <c r="H17" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="37" t="s">
+      <c r="I17" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="38" t="s">
+      <c r="J17" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="K17" s="38" t="s">
+      <c r="K17" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="L17" s="38" t="s">
+      <c r="L17" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="38" t="s">
+      <c r="M17" s="35" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="38" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="31">
@@ -17726,27 +21122,27 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="34" t="s">
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
-      <c r="C21" s="33"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="28" t="s">
         <v>33</v>
       </c>
@@ -17780,7 +21176,7 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="36" t="s">
         <v>0</v>
       </c>
       <c r="D22" s="29">
@@ -17816,7 +21212,7 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="37" t="s">
         <v>31</v>
       </c>
       <c r="D23" s="30">
@@ -17852,7 +21248,7 @@
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="37" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="30">
@@ -17888,43 +21284,43 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="E25" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="38" t="s">
+      <c r="G25" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="38" t="s">
+      <c r="H25" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="37" t="s">
+      <c r="I25" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="38" t="s">
+      <c r="J25" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="K25" s="38" t="s">
+      <c r="K25" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="L25" s="38" t="s">
+      <c r="L25" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M25" s="38" t="s">
+      <c r="M25" s="35" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="38" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="31">
@@ -17974,27 +21370,27 @@
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="34" t="s">
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
-      <c r="C29" s="33"/>
+      <c r="C29" s="43"/>
       <c r="D29" s="28" t="s">
         <v>33</v>
       </c>
@@ -18028,7 +21424,7 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="36" t="s">
         <v>0</v>
       </c>
       <c r="D30" s="29">
@@ -18064,7 +21460,7 @@
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="37" t="s">
         <v>31</v>
       </c>
       <c r="D31" s="30">
@@ -18100,7 +21496,7 @@
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="37" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="30">
@@ -18136,43 +21532,43 @@
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="38" t="s">
+      <c r="E33" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="38" t="s">
+      <c r="F33" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G33" s="38" t="s">
+      <c r="G33" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="H33" s="38" t="s">
+      <c r="H33" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I33" s="37" t="s">
+      <c r="I33" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="J33" s="38" t="s">
+      <c r="J33" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="K33" s="38" t="s">
+      <c r="K33" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="L33" s="38" t="s">
+      <c r="L33" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M33" s="38" t="s">
+      <c r="M33" s="35" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
-      <c r="C34" s="41" t="s">
+      <c r="C34" s="38" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="31">
@@ -18233,184 +21629,1395 @@
     <mergeCell ref="I20:M20"/>
   </mergeCells>
   <conditionalFormatting sqref="I6:I11">
-    <cfRule type="top10" dxfId="79" priority="70" rank="1"/>
+    <cfRule type="top10" dxfId="167" priority="70" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J11">
-    <cfRule type="top10" dxfId="78" priority="69" rank="1"/>
+    <cfRule type="top10" dxfId="166" priority="69" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K11">
-    <cfRule type="top10" dxfId="77" priority="68" rank="1"/>
+    <cfRule type="top10" dxfId="165" priority="68" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L11">
-    <cfRule type="top10" dxfId="76" priority="67" rank="1"/>
+    <cfRule type="top10" dxfId="164" priority="67" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M11">
-    <cfRule type="top10" dxfId="75" priority="66" rank="1"/>
+    <cfRule type="top10" dxfId="163" priority="66" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="top10" dxfId="74" priority="65" rank="1"/>
+    <cfRule type="top10" dxfId="162" priority="65" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="top10" dxfId="73" priority="64" rank="1"/>
+    <cfRule type="top10" dxfId="161" priority="64" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="top10" dxfId="72" priority="63" rank="1"/>
+    <cfRule type="top10" dxfId="160" priority="63" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19">
-    <cfRule type="top10" dxfId="71" priority="62" rank="1"/>
+    <cfRule type="top10" dxfId="159" priority="62" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="top10" dxfId="70" priority="61" rank="1"/>
+    <cfRule type="top10" dxfId="158" priority="61" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="top10" dxfId="69" priority="60" rank="1"/>
+    <cfRule type="top10" dxfId="157" priority="60" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="top10" dxfId="68" priority="59" rank="1"/>
+    <cfRule type="top10" dxfId="156" priority="59" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27">
-    <cfRule type="top10" dxfId="67" priority="58" rank="1"/>
+    <cfRule type="top10" dxfId="155" priority="58" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27">
-    <cfRule type="top10" dxfId="66" priority="57" rank="1"/>
+    <cfRule type="top10" dxfId="154" priority="57" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27">
-    <cfRule type="top10" dxfId="65" priority="56" rank="1"/>
+    <cfRule type="top10" dxfId="153" priority="56" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D11">
-    <cfRule type="top10" dxfId="59" priority="50" rank="1"/>
+    <cfRule type="top10" dxfId="152" priority="50" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E11">
-    <cfRule type="top10" dxfId="58" priority="49" rank="1"/>
+    <cfRule type="top10" dxfId="151" priority="49" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F11">
-    <cfRule type="top10" dxfId="57" priority="48" rank="1"/>
+    <cfRule type="top10" dxfId="150" priority="48" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G11">
-    <cfRule type="top10" dxfId="56" priority="47" rank="1"/>
+    <cfRule type="top10" dxfId="149" priority="47" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H11">
-    <cfRule type="top10" dxfId="55" priority="46" rank="1"/>
+    <cfRule type="top10" dxfId="148" priority="46" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="top10" dxfId="54" priority="45" rank="1"/>
+    <cfRule type="top10" dxfId="147" priority="45" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="top10" dxfId="53" priority="44" rank="1"/>
+    <cfRule type="top10" dxfId="146" priority="44" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="top10" dxfId="52" priority="43" rank="1"/>
+    <cfRule type="top10" dxfId="145" priority="43" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="top10" dxfId="51" priority="42" rank="1"/>
+    <cfRule type="top10" dxfId="144" priority="42" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="top10" dxfId="50" priority="41" rank="1"/>
+    <cfRule type="top10" dxfId="143" priority="41" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="top10" dxfId="49" priority="40" rank="1"/>
+    <cfRule type="top10" dxfId="142" priority="40" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="top10" dxfId="48" priority="39" rank="1"/>
+    <cfRule type="top10" dxfId="141" priority="39" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="top10" dxfId="47" priority="38" rank="1"/>
+    <cfRule type="top10" dxfId="140" priority="38" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="top10" dxfId="46" priority="37" rank="1"/>
+    <cfRule type="top10" dxfId="139" priority="37" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="top10" dxfId="45" priority="36" rank="1"/>
+    <cfRule type="top10" dxfId="138" priority="36" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:I18">
-    <cfRule type="top10" dxfId="39" priority="30" rank="1"/>
+    <cfRule type="top10" dxfId="137" priority="30" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:J18">
-    <cfRule type="top10" dxfId="38" priority="29" rank="1"/>
+    <cfRule type="top10" dxfId="136" priority="29" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:K18">
-    <cfRule type="top10" dxfId="37" priority="28" rank="1"/>
+    <cfRule type="top10" dxfId="135" priority="28" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14:L18">
-    <cfRule type="top10" dxfId="36" priority="27" rank="1"/>
+    <cfRule type="top10" dxfId="134" priority="27" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:M18">
-    <cfRule type="top10" dxfId="35" priority="26" rank="1"/>
+    <cfRule type="top10" dxfId="133" priority="26" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D18">
-    <cfRule type="top10" dxfId="34" priority="25" rank="1"/>
+    <cfRule type="top10" dxfId="132" priority="25" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E18">
-    <cfRule type="top10" dxfId="33" priority="24" rank="1"/>
+    <cfRule type="top10" dxfId="131" priority="24" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F18">
-    <cfRule type="top10" dxfId="32" priority="23" rank="1"/>
+    <cfRule type="top10" dxfId="130" priority="23" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G18">
-    <cfRule type="top10" dxfId="31" priority="22" rank="1"/>
+    <cfRule type="top10" dxfId="129" priority="22" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:H18">
-    <cfRule type="top10" dxfId="30" priority="21" rank="1"/>
+    <cfRule type="top10" dxfId="128" priority="21" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:I26">
-    <cfRule type="top10" dxfId="29" priority="20" rank="1"/>
+    <cfRule type="top10" dxfId="127" priority="20" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:J26">
-    <cfRule type="top10" dxfId="28" priority="19" rank="1"/>
+    <cfRule type="top10" dxfId="126" priority="19" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:K26">
-    <cfRule type="top10" dxfId="27" priority="18" rank="1"/>
+    <cfRule type="top10" dxfId="125" priority="18" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22:L26">
-    <cfRule type="top10" dxfId="26" priority="17" rank="1"/>
+    <cfRule type="top10" dxfId="124" priority="17" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22:M26">
-    <cfRule type="top10" dxfId="25" priority="16" rank="1"/>
+    <cfRule type="top10" dxfId="123" priority="16" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D26">
-    <cfRule type="top10" dxfId="24" priority="15" rank="1"/>
+    <cfRule type="top10" dxfId="122" priority="15" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E26">
-    <cfRule type="top10" dxfId="23" priority="14" rank="1"/>
+    <cfRule type="top10" dxfId="121" priority="14" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:F26">
-    <cfRule type="top10" dxfId="22" priority="13" rank="1"/>
+    <cfRule type="top10" dxfId="120" priority="13" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:G26">
-    <cfRule type="top10" dxfId="21" priority="12" rank="1"/>
+    <cfRule type="top10" dxfId="119" priority="12" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:H26">
-    <cfRule type="top10" dxfId="20" priority="11" rank="1"/>
+    <cfRule type="top10" dxfId="118" priority="11" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:I34">
-    <cfRule type="top10" dxfId="9" priority="10" rank="1"/>
+    <cfRule type="top10" dxfId="117" priority="10" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30:J34">
-    <cfRule type="top10" dxfId="8" priority="9" rank="1"/>
+    <cfRule type="top10" dxfId="116" priority="9" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:K34">
-    <cfRule type="top10" dxfId="7" priority="8" rank="1"/>
+    <cfRule type="top10" dxfId="115" priority="8" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30:L34">
-    <cfRule type="top10" dxfId="6" priority="7" rank="1"/>
+    <cfRule type="top10" dxfId="114" priority="7" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M30:M34">
-    <cfRule type="top10" dxfId="5" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="113" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:D34">
-    <cfRule type="top10" dxfId="4" priority="5" rank="1"/>
+    <cfRule type="top10" dxfId="112" priority="5" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:E34">
-    <cfRule type="top10" dxfId="3" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="111" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:F34">
-    <cfRule type="top10" dxfId="2" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="110" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G34">
-    <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="109" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:H34">
-    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="108" priority="1" rank="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="69" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9E27F8-FD6D-4B3E-9F4B-E263411B9C8F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B4:M37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+      <c r="C6" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="29">
+        <v>0.58560581226033104</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0.47011915743571298</v>
+      </c>
+      <c r="F6" s="24">
+        <v>0.50443695633943397</v>
+      </c>
+      <c r="G6" s="24">
+        <v>0.74851148500811904</v>
+      </c>
+      <c r="H6" s="24">
+        <v>0.99140435004688499</v>
+      </c>
+      <c r="I6" s="29">
+        <v>0.58700517716730227</v>
+      </c>
+      <c r="J6" s="24">
+        <v>0.47661760652501151</v>
+      </c>
+      <c r="K6" s="24">
+        <v>0.50433460160076671</v>
+      </c>
+      <c r="L6" s="24">
+        <v>0.83606672697062201</v>
+      </c>
+      <c r="M6" s="24">
+        <v>0.99632032654098435</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+      <c r="C7" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="30">
+        <v>0.80528851651660804</v>
+      </c>
+      <c r="E7" s="26">
+        <v>0.46017412385359502</v>
+      </c>
+      <c r="F7" s="26">
+        <v>0.736016345076274</v>
+      </c>
+      <c r="G7" s="26">
+        <v>0.76797081672015899</v>
+      </c>
+      <c r="H7" s="26">
+        <v>0.99275563958496904</v>
+      </c>
+      <c r="I7" s="30">
+        <v>0.80753396221301443</v>
+      </c>
+      <c r="J7" s="26">
+        <v>0.45470629349921826</v>
+      </c>
+      <c r="K7" s="26">
+        <v>0.74534587762648352</v>
+      </c>
+      <c r="L7" s="26">
+        <v>0.81739253844209203</v>
+      </c>
+      <c r="M7" s="26">
+        <v>0.9970393133140627</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="30">
+        <v>0.80427838470393598</v>
+      </c>
+      <c r="E8" s="26">
+        <v>0.46093076975855901</v>
+      </c>
+      <c r="F8" s="26">
+        <v>0.73503670780888997</v>
+      </c>
+      <c r="G8" s="26">
+        <v>0.76981764261917596</v>
+      </c>
+      <c r="H8" s="26">
+        <v>0.99311776231026605</v>
+      </c>
+      <c r="I8" s="30">
+        <v>0.80749869919912143</v>
+      </c>
+      <c r="J8" s="26">
+        <v>0.455400565704289</v>
+      </c>
+      <c r="K8" s="26">
+        <v>0.74539905490130165</v>
+      </c>
+      <c r="L8" s="26">
+        <v>0.81928981454700267</v>
+      </c>
+      <c r="M8" s="26">
+        <v>0.9971527479227561</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="31">
+        <v>0.69991842709135399</v>
+      </c>
+      <c r="E10" s="27">
+        <v>0.61136798530162895</v>
+      </c>
+      <c r="F10" s="27">
+        <v>0.63586272880438499</v>
+      </c>
+      <c r="G10" s="27">
+        <v>0.79467832066539101</v>
+      </c>
+      <c r="H10" s="27">
+        <v>0.99310442094670304</v>
+      </c>
+      <c r="I10" s="31">
+        <v>0.69915369201708355</v>
+      </c>
+      <c r="J10" s="27">
+        <v>0.61621221691316852</v>
+      </c>
+      <c r="K10" s="27">
+        <v>0.65589166505788832</v>
+      </c>
+      <c r="L10" s="27">
+        <v>0.87089970693628471</v>
+      </c>
+      <c r="M10" s="27">
+        <v>0.9970123431521527</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="C12" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="29">
+        <v>0.53</v>
+      </c>
+      <c r="E14" s="24">
+        <v>0.43</v>
+      </c>
+      <c r="F14" s="24">
+        <v>0.46</v>
+      </c>
+      <c r="G14" s="24">
+        <v>0.72</v>
+      </c>
+      <c r="H14" s="24">
+        <v>0.99</v>
+      </c>
+      <c r="I14" s="29">
+        <v>0.53249999999999997</v>
+      </c>
+      <c r="J14" s="24">
+        <v>0.4325</v>
+      </c>
+      <c r="K14" s="24">
+        <v>0.45750000000000002</v>
+      </c>
+      <c r="L14" s="24">
+        <v>0.80333333333333334</v>
+      </c>
+      <c r="M14" s="24">
+        <v>0.9966666666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="E15" s="26">
+        <v>0.47</v>
+      </c>
+      <c r="F15" s="26">
+        <v>0.74</v>
+      </c>
+      <c r="G15" s="26">
+        <v>0.77</v>
+      </c>
+      <c r="H15" s="26">
+        <v>0.99</v>
+      </c>
+      <c r="I15" s="30">
+        <v>0.80499999999999994</v>
+      </c>
+      <c r="J15" s="26">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="K15" s="26">
+        <v>0.74749999999999994</v>
+      </c>
+      <c r="L15" s="26">
+        <v>0.82</v>
+      </c>
+      <c r="M15" s="26">
+        <v>0.9966666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="E16" s="26">
+        <v>0.47</v>
+      </c>
+      <c r="F16" s="26">
+        <v>0.74</v>
+      </c>
+      <c r="G16" s="26">
+        <v>0.77</v>
+      </c>
+      <c r="H16" s="26">
+        <v>0.99</v>
+      </c>
+      <c r="I16" s="30">
+        <v>0.8075</v>
+      </c>
+      <c r="J16" s="26">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="K16" s="26">
+        <v>0.74749999999999994</v>
+      </c>
+      <c r="L16" s="26">
+        <v>0.82</v>
+      </c>
+      <c r="M16" s="26">
+        <v>0.9966666666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" s="35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="C18" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="31">
+        <v>0.49</v>
+      </c>
+      <c r="E18" s="27">
+        <v>0.37</v>
+      </c>
+      <c r="F18" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="G18" s="27">
+        <v>0.63</v>
+      </c>
+      <c r="H18" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="I18" s="31">
+        <v>0.49</v>
+      </c>
+      <c r="J18" s="27">
+        <v>0.38</v>
+      </c>
+      <c r="K18" s="27">
+        <v>0.43</v>
+      </c>
+      <c r="L18" s="27">
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="M18" s="27">
+        <v>0.9966666666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="C22" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="29">
+        <v>0.59</v>
+      </c>
+      <c r="E22" s="24">
+        <v>0.47</v>
+      </c>
+      <c r="F22" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="H22" s="24">
+        <v>0.99</v>
+      </c>
+      <c r="I22" s="29">
+        <v>0.59</v>
+      </c>
+      <c r="J22" s="24">
+        <v>0.47749999999999998</v>
+      </c>
+      <c r="K22" s="24">
+        <v>0.505</v>
+      </c>
+      <c r="L22" s="24">
+        <v>0.83666666666666656</v>
+      </c>
+      <c r="M22" s="24">
+        <v>0.9966666666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="6"/>
+      <c r="C23" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="30">
+        <v>0.81</v>
+      </c>
+      <c r="E23" s="26">
+        <v>0.46</v>
+      </c>
+      <c r="F23" s="26">
+        <v>0.74</v>
+      </c>
+      <c r="G23" s="26">
+        <v>0.77</v>
+      </c>
+      <c r="H23" s="26">
+        <v>0.99</v>
+      </c>
+      <c r="I23" s="30">
+        <v>0.81</v>
+      </c>
+      <c r="J23" s="26">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="K23" s="26">
+        <v>0.745</v>
+      </c>
+      <c r="L23" s="26">
+        <v>0.82</v>
+      </c>
+      <c r="M23" s="26">
+        <v>0.9966666666666667</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+      <c r="C24" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="E24" s="26">
+        <v>0.46</v>
+      </c>
+      <c r="F24" s="26">
+        <v>0.74</v>
+      </c>
+      <c r="G24" s="26">
+        <v>0.77</v>
+      </c>
+      <c r="H24" s="26">
+        <v>0.99</v>
+      </c>
+      <c r="I24" s="30">
+        <v>0.8075</v>
+      </c>
+      <c r="J24" s="26">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="K24" s="26">
+        <v>0.745</v>
+      </c>
+      <c r="L24" s="26">
+        <v>0.82</v>
+      </c>
+      <c r="M24" s="26">
+        <v>0.9966666666666667</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="C25" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" s="35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+      <c r="C26" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="31">
+        <v>0.7</v>
+      </c>
+      <c r="E26" s="27">
+        <v>0.61</v>
+      </c>
+      <c r="F26" s="27">
+        <v>0.64</v>
+      </c>
+      <c r="G26" s="27">
+        <v>0.79</v>
+      </c>
+      <c r="H26" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="I26" s="31">
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="J26" s="27">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="K26" s="27">
+        <v>0.65666666666666673</v>
+      </c>
+      <c r="L26" s="27">
+        <v>0.87000000000000011</v>
+      </c>
+      <c r="M26" s="27">
+        <v>0.9966666666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="6"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+      <c r="C28" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="6"/>
+      <c r="C30" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="29">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E30" s="24">
+        <v>0.45</v>
+      </c>
+      <c r="F30" s="24">
+        <v>0.48</v>
+      </c>
+      <c r="G30" s="24">
+        <v>0.73</v>
+      </c>
+      <c r="H30" s="24">
+        <v>0.99</v>
+      </c>
+      <c r="I30" s="29">
+        <v>0.55750000000000011</v>
+      </c>
+      <c r="J30" s="24">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="K30" s="24">
+        <v>0.47750000000000004</v>
+      </c>
+      <c r="L30" s="24">
+        <v>0.81333333333333335</v>
+      </c>
+      <c r="M30" s="24">
+        <v>0.9966666666666667</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
+      <c r="C31" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="E31" s="26">
+        <v>0.46</v>
+      </c>
+      <c r="F31" s="26">
+        <v>0.74</v>
+      </c>
+      <c r="G31" s="26">
+        <v>0.77</v>
+      </c>
+      <c r="H31" s="26">
+        <v>0.99</v>
+      </c>
+      <c r="I31" s="30">
+        <v>0.8075</v>
+      </c>
+      <c r="J31" s="26">
+        <v>0.46</v>
+      </c>
+      <c r="K31" s="26">
+        <v>0.745</v>
+      </c>
+      <c r="L31" s="26">
+        <v>0.82</v>
+      </c>
+      <c r="M31" s="26">
+        <v>0.9966666666666667</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+      <c r="C32" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="E32" s="26">
+        <v>0.46</v>
+      </c>
+      <c r="F32" s="26">
+        <v>0.74</v>
+      </c>
+      <c r="G32" s="26">
+        <v>0.77</v>
+      </c>
+      <c r="H32" s="26">
+        <v>0.99</v>
+      </c>
+      <c r="I32" s="30">
+        <v>0.8075</v>
+      </c>
+      <c r="J32" s="26">
+        <v>0.46</v>
+      </c>
+      <c r="K32" s="26">
+        <v>0.74749999999999994</v>
+      </c>
+      <c r="L32" s="26">
+        <v>0.82</v>
+      </c>
+      <c r="M32" s="26">
+        <v>0.9966666666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="6"/>
+      <c r="C33" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M33" s="35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="6"/>
+      <c r="C34" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="31">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E34" s="27">
+        <v>0.46</v>
+      </c>
+      <c r="F34" s="27">
+        <v>0.49</v>
+      </c>
+      <c r="G34" s="27">
+        <v>0.7</v>
+      </c>
+      <c r="H34" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="I34" s="31">
+        <v>0.57750000000000001</v>
+      </c>
+      <c r="J34" s="27">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="K34" s="27">
+        <v>0.51999999999999991</v>
+      </c>
+      <c r="L34" s="27">
+        <v>0.80999999999999994</v>
+      </c>
+      <c r="M34" s="27">
+        <v>0.9966666666666667</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="6"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="6"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="I20:M20"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="I28:M28"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I12:M12"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I6:I11">
+    <cfRule type="top10" dxfId="107" priority="60" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="top10" dxfId="106" priority="59" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:K11">
+    <cfRule type="top10" dxfId="105" priority="58" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6:L11">
+    <cfRule type="top10" dxfId="104" priority="57" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="top10" dxfId="103" priority="56" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="top10" dxfId="102" priority="55" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="top10" dxfId="101" priority="54" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19">
+    <cfRule type="top10" dxfId="100" priority="53" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19">
+    <cfRule type="top10" dxfId="99" priority="52" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19">
+    <cfRule type="top10" dxfId="98" priority="51" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="top10" dxfId="97" priority="50" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
+    <cfRule type="top10" dxfId="96" priority="49" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27">
+    <cfRule type="top10" dxfId="95" priority="48" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27">
+    <cfRule type="top10" dxfId="94" priority="47" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M27">
+    <cfRule type="top10" dxfId="93" priority="46" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D11">
+    <cfRule type="top10" dxfId="92" priority="45" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E11">
+    <cfRule type="top10" dxfId="91" priority="44" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F11">
+    <cfRule type="top10" dxfId="90" priority="43" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G11">
+    <cfRule type="top10" dxfId="89" priority="42" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H11">
+    <cfRule type="top10" dxfId="88" priority="41" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="top10" dxfId="87" priority="40" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="top10" dxfId="86" priority="39" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="top10" dxfId="85" priority="38" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="top10" dxfId="84" priority="37" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="top10" dxfId="83" priority="36" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="top10" dxfId="82" priority="35" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="top10" dxfId="81" priority="34" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="top10" dxfId="80" priority="33" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="top10" dxfId="79" priority="32" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="top10" dxfId="78" priority="31" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:I18">
+    <cfRule type="top10" dxfId="77" priority="30" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:J18">
+    <cfRule type="top10" dxfId="76" priority="29" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14:K18">
+    <cfRule type="top10" dxfId="75" priority="28" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14:L18">
+    <cfRule type="top10" dxfId="74" priority="27" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14:M18">
+    <cfRule type="top10" dxfId="73" priority="26" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:D18">
+    <cfRule type="top10" dxfId="72" priority="25" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E18">
+    <cfRule type="top10" dxfId="71" priority="24" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F18">
+    <cfRule type="top10" dxfId="70" priority="23" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:G18">
+    <cfRule type="top10" dxfId="69" priority="22" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:H18">
+    <cfRule type="top10" dxfId="68" priority="21" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:I26">
+    <cfRule type="top10" dxfId="67" priority="20" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22:J26">
+    <cfRule type="top10" dxfId="66" priority="19" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22:K26">
+    <cfRule type="top10" dxfId="65" priority="18" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22:L26">
+    <cfRule type="top10" dxfId="64" priority="17" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M22:M26">
+    <cfRule type="top10" dxfId="63" priority="16" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D26">
+    <cfRule type="top10" dxfId="62" priority="15" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22:E26">
+    <cfRule type="top10" dxfId="61" priority="14" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22:F26">
+    <cfRule type="top10" dxfId="60" priority="13" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:G26">
+    <cfRule type="top10" dxfId="59" priority="12" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22:H26">
+    <cfRule type="top10" dxfId="58" priority="11" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30:I34">
+    <cfRule type="top10" dxfId="57" priority="10" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J34">
+    <cfRule type="top10" dxfId="56" priority="9" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30:K34">
+    <cfRule type="top10" dxfId="55" priority="8" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L30:L34">
+    <cfRule type="top10" dxfId="54" priority="7" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M34">
+    <cfRule type="top10" dxfId="53" priority="6" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:D34">
+    <cfRule type="top10" dxfId="52" priority="5" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:E34">
+    <cfRule type="top10" dxfId="51" priority="4" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30:F34">
+    <cfRule type="top10" dxfId="50" priority="3" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30:G34">
+    <cfRule type="top10" dxfId="49" priority="2" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30:H34">
+    <cfRule type="top10" dxfId="48" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="69" orientation="landscape" r:id="rId1"/>
